--- a/data/hollywoodStories_consol.xlsx
+++ b/data/hollywoodStories_consol.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5636" uniqueCount="2360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="2360">
   <si>
     <t>filmName</t>
   </si>
@@ -7241,14 +7241,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5C79A5B-1368-4781-9D66-66F1026FB6EC}" name="Table1" displayName="Table1" ref="A1:U998" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:U998" xr:uid="{86A8B22E-8F30-4876-90F2-9FBBEE726EE3}">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:T998">
-    <sortCondition descending="1" ref="N1:N998"/>
-  </sortState>
+  <autoFilter ref="A1:U998" xr:uid="{86A8B22E-8F30-4876-90F2-9FBBEE726EE3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{5CACA7C5-018F-4983-8C28-D6D63A8F1618}" name="filmName"/>
     <tableColumn id="2" xr3:uid="{C1DF41B9-F35D-4170-92D6-1C19B7B6133B}" name="normalizedDistributor"/>
@@ -7568,10 +7561,10 @@
   <dimension ref="A1:U998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E517" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I542" sqref="I542"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7660,7 +7653,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -7727,7 +7720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>170</v>
       </c>
@@ -7794,7 +7787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -7861,7 +7854,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -7928,7 +7921,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -7995,7 +7988,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -8062,7 +8055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -8129,7 +8122,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>263</v>
       </c>
@@ -8196,7 +8189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -8263,7 +8256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -8324,7 +8317,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -8391,7 +8384,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>342</v>
       </c>
@@ -8458,7 +8451,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>352</v>
       </c>
@@ -8525,7 +8518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -8592,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>384</v>
       </c>
@@ -8659,7 +8652,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8726,7 +8719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -8793,7 +8786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>406</v>
       </c>
@@ -8860,7 +8853,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>454</v>
       </c>
@@ -8924,7 +8917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>465</v>
       </c>
@@ -8991,7 +8984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -9058,7 +9051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -9125,7 +9118,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>485</v>
       </c>
@@ -9192,7 +9185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -9256,7 +9249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -9323,7 +9316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -9390,7 +9383,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>434</v>
       </c>
@@ -9454,7 +9447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>291</v>
       </c>
@@ -9521,7 +9514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>300</v>
       </c>
@@ -9588,7 +9581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>496</v>
       </c>
@@ -9655,7 +9648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>498</v>
       </c>
@@ -9722,7 +9715,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -9789,7 +9782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -9856,7 +9849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>513</v>
       </c>
@@ -9923,7 +9916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>522</v>
       </c>
@@ -9990,7 +9983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -10054,7 +10047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -10118,7 +10111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -10182,7 +10175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -10246,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>546</v>
       </c>
@@ -10313,7 +10306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -10377,7 +10370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>243</v>
       </c>
@@ -10463,6 +10456,9 @@
       <c r="F44">
         <v>57</v>
       </c>
+      <c r="H44" t="s">
+        <v>2359</v>
+      </c>
       <c r="I44">
         <v>3912</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>473</v>
       </c>
@@ -10569,7 +10565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>582</v>
       </c>
@@ -10636,7 +10632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>344</v>
       </c>
@@ -10703,7 +10699,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>588</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -10837,7 +10833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>400</v>
       </c>
@@ -10901,7 +10897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>614</v>
       </c>
@@ -10968,7 +10964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -11032,7 +11028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -11096,7 +11092,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -11163,7 +11159,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -11230,7 +11226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -11294,7 +11290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2012</v>
       </c>
@@ -11361,7 +11357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -11425,7 +11421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>159</v>
       </c>
@@ -11492,7 +11488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -11559,7 +11555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -11626,7 +11622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>347</v>
       </c>
@@ -11693,7 +11689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>359</v>
       </c>
@@ -11760,7 +11756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>365</v>
       </c>
@@ -11827,7 +11823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>549</v>
       </c>
@@ -11894,7 +11890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>617</v>
       </c>
@@ -11961,7 +11957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -12028,7 +12024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>624</v>
       </c>
@@ -12092,7 +12088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>379</v>
       </c>
@@ -12159,7 +12155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -12223,7 +12219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -12306,6 +12302,9 @@
       <c r="F72">
         <v>78</v>
       </c>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
       <c r="I72">
         <v>3275</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>636</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -12568,6 +12567,9 @@
       <c r="F76">
         <v>76</v>
       </c>
+      <c r="H76" t="s">
+        <v>2359</v>
+      </c>
       <c r="I76">
         <v>4164</v>
       </c>
@@ -12610,7 +12612,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>664</v>
       </c>
@@ -12677,7 +12679,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>294</v>
       </c>
@@ -12811,7 +12813,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>402</v>
       </c>
@@ -12897,6 +12899,9 @@
       <c r="F81">
         <v>56</v>
       </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
       <c r="I81">
         <v>2689</v>
       </c>
@@ -12939,7 +12944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>699</v>
       </c>
@@ -13006,7 +13011,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -13070,7 +13075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>281</v>
       </c>
@@ -13156,6 +13161,9 @@
       <c r="F85">
         <v>52</v>
       </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
       <c r="I85">
         <v>3773</v>
       </c>
@@ -13198,7 +13206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>712</v>
       </c>
@@ -13265,7 +13273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -13332,7 +13340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>217</v>
       </c>
@@ -13399,7 +13407,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>230</v>
       </c>
@@ -13463,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>726</v>
       </c>
@@ -13524,7 +13532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>727</v>
       </c>
@@ -13591,7 +13599,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>728</v>
       </c>
@@ -13658,7 +13666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>683</v>
       </c>
@@ -13725,7 +13733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>730</v>
       </c>
@@ -13792,7 +13800,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>427</v>
       </c>
@@ -13859,7 +13867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>745</v>
       </c>
@@ -13926,7 +13934,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>748</v>
       </c>
@@ -13993,7 +14001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -14060,7 +14068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -14127,7 +14135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -14191,7 +14199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>331</v>
       </c>
@@ -14258,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>761</v>
       </c>
@@ -14325,7 +14333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>419</v>
       </c>
@@ -14392,7 +14400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>260</v>
       </c>
@@ -14476,10 +14484,13 @@
         <v>35</v>
       </c>
       <c r="F105">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G105" t="s">
         <v>212</v>
+      </c>
+      <c r="H105" t="s">
+        <v>65</v>
       </c>
       <c r="I105">
         <v>3149</v>
@@ -14520,10 +14531,10 @@
       </c>
       <c r="U105">
         <f>Table1[[#This Row],[scoreAudience]]-Table1[[#This Row],[scoreRotten]]</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>785</v>
       </c>
@@ -14590,7 +14601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>74</v>
       </c>
@@ -14657,7 +14668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -14718,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -14785,7 +14796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -14852,7 +14863,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>153</v>
       </c>
@@ -14919,7 +14930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -14986,7 +14997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>241</v>
       </c>
@@ -15053,7 +15064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>270</v>
       </c>
@@ -15120,7 +15131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>308</v>
       </c>
@@ -15187,7 +15198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>369</v>
       </c>
@@ -15254,7 +15265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>396</v>
       </c>
@@ -15318,7 +15329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>416</v>
       </c>
@@ -15404,6 +15415,9 @@
       <c r="F119">
         <v>46</v>
       </c>
+      <c r="H119" t="s">
+        <v>70</v>
+      </c>
       <c r="I119">
         <v>3755</v>
       </c>
@@ -15446,7 +15460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>577</v>
       </c>
@@ -15513,7 +15527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>601</v>
       </c>
@@ -15577,7 +15591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>644</v>
       </c>
@@ -15641,7 +15655,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>808</v>
       </c>
@@ -15708,7 +15722,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>833</v>
       </c>
@@ -15775,7 +15789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>1591</v>
       </c>
@@ -15842,7 +15856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>798</v>
       </c>
@@ -15909,7 +15923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -15976,7 +15990,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>278</v>
       </c>
@@ -16043,7 +16057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>391</v>
       </c>
@@ -16126,6 +16140,9 @@
       <c r="F130">
         <v>73</v>
       </c>
+      <c r="H130" t="s">
+        <v>2359</v>
+      </c>
       <c r="I130">
         <v>4258</v>
       </c>
@@ -16168,7 +16185,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>322</v>
       </c>
@@ -16235,7 +16252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>289</v>
       </c>
@@ -16302,7 +16319,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>315</v>
       </c>
@@ -16369,7 +16386,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>462</v>
       </c>
@@ -16436,7 +16453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>176</v>
       </c>
@@ -16500,7 +16517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -16564,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>490</v>
       </c>
@@ -16631,7 +16648,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>788</v>
       </c>
@@ -16698,7 +16715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -16762,7 +16779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -16829,7 +16846,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>197</v>
       </c>
@@ -16915,6 +16932,9 @@
       <c r="F142">
         <v>69</v>
       </c>
+      <c r="H142" t="s">
+        <v>25</v>
+      </c>
       <c r="I142">
         <v>3396</v>
       </c>
@@ -16957,7 +16977,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>303</v>
       </c>
@@ -17021,7 +17041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>306</v>
       </c>
@@ -17088,7 +17108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>362</v>
       </c>
@@ -17174,6 +17194,9 @@
       <c r="F146">
         <v>38</v>
       </c>
+      <c r="H146" t="s">
+        <v>2359</v>
+      </c>
       <c r="I146">
         <v>3401</v>
       </c>
@@ -17216,7 +17239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>646</v>
       </c>
@@ -17283,7 +17306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>1174</v>
       </c>
@@ -17347,7 +17370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>884</v>
       </c>
@@ -17414,7 +17437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>885</v>
       </c>
@@ -17481,7 +17504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -17548,7 +17571,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>73</v>
       </c>
@@ -17615,7 +17638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -17682,7 +17705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -17749,7 +17772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>221</v>
       </c>
@@ -17816,7 +17839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>440</v>
       </c>
@@ -17880,7 +17903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>622</v>
       </c>
@@ -17944,7 +17967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>91</v>
       </c>
@@ -18008,7 +18031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -18091,6 +18114,9 @@
       <c r="F160">
         <v>70</v>
       </c>
+      <c r="H160" t="s">
+        <v>25</v>
+      </c>
       <c r="I160">
         <v>3924</v>
       </c>
@@ -18133,7 +18159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>430</v>
       </c>
@@ -18197,7 +18223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>528</v>
       </c>
@@ -18264,7 +18290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>476</v>
       </c>
@@ -18331,7 +18357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>467</v>
       </c>
@@ -18398,7 +18424,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>940</v>
       </c>
@@ -18465,7 +18491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>431</v>
       </c>
@@ -18529,7 +18555,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>626</v>
       </c>
@@ -18596,7 +18622,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>948</v>
       </c>
@@ -18663,7 +18689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>950</v>
       </c>
@@ -18730,7 +18756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>957</v>
       </c>
@@ -18797,7 +18823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>525</v>
       </c>
@@ -18864,7 +18890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>502</v>
       </c>
@@ -18931,7 +18957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>963</v>
       </c>
@@ -18998,7 +19024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>124</v>
       </c>
@@ -19065,7 +19091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -19132,7 +19158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>405</v>
       </c>
@@ -19199,7 +19225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>413</v>
       </c>
@@ -19285,6 +19311,9 @@
       <c r="F178">
         <v>72</v>
       </c>
+      <c r="H178" t="s">
+        <v>25</v>
+      </c>
       <c r="I178">
         <v>3407</v>
       </c>
@@ -19327,7 +19356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>966</v>
       </c>
@@ -19394,7 +19423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>979</v>
       </c>
@@ -19461,7 +19490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>987</v>
       </c>
@@ -19528,7 +19557,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>335</v>
       </c>
@@ -19592,7 +19621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>340</v>
       </c>
@@ -19659,7 +19688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>459</v>
       </c>
@@ -19726,7 +19755,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>770</v>
       </c>
@@ -19793,7 +19822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>321</v>
       </c>
@@ -19876,6 +19905,9 @@
       <c r="F187">
         <v>67</v>
       </c>
+      <c r="H187" t="s">
+        <v>94</v>
+      </c>
       <c r="I187">
         <v>2008</v>
       </c>
@@ -19918,7 +19950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>999</v>
       </c>
@@ -19985,7 +20017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>1009</v>
       </c>
@@ -20052,7 +20084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>137</v>
       </c>
@@ -20116,7 +20148,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>252</v>
       </c>
@@ -20180,7 +20212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>381</v>
       </c>
@@ -20247,7 +20279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>393</v>
       </c>
@@ -20311,7 +20343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>426</v>
       </c>
@@ -20378,7 +20410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>438</v>
       </c>
@@ -20461,6 +20493,9 @@
       <c r="F196">
         <v>66</v>
       </c>
+      <c r="H196" t="s">
+        <v>70</v>
+      </c>
       <c r="I196">
         <v>3882</v>
       </c>
@@ -20503,7 +20538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>494</v>
       </c>
@@ -20570,7 +20605,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>580</v>
       </c>
@@ -20637,7 +20672,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>673</v>
       </c>
@@ -20704,7 +20739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>678</v>
       </c>
@@ -20768,7 +20803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>702</v>
       </c>
@@ -20835,7 +20870,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>792</v>
       </c>
@@ -20902,7 +20937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>1006</v>
       </c>
@@ -20969,7 +21004,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>1052</v>
       </c>
@@ -21036,7 +21071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>1269</v>
       </c>
@@ -21103,7 +21138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>778</v>
       </c>
@@ -21170,7 +21205,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>697</v>
       </c>
@@ -21237,7 +21272,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>1030</v>
       </c>
@@ -21304,7 +21339,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>816</v>
       </c>
@@ -21365,7 +21400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>82</v>
       </c>
@@ -21429,7 +21464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>536</v>
       </c>
@@ -21496,7 +21531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>714</v>
       </c>
@@ -21563,7 +21598,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>1055</v>
       </c>
@@ -21630,7 +21665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>228</v>
       </c>
@@ -21697,7 +21732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>1068</v>
       </c>
@@ -21764,7 +21799,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>398</v>
       </c>
@@ -21828,7 +21863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>891</v>
       </c>
@@ -21895,7 +21930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>803</v>
       </c>
@@ -21962,7 +21997,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>79</v>
       </c>
@@ -22029,7 +22064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>211</v>
       </c>
@@ -22096,7 +22131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>225</v>
       </c>
@@ -22163,7 +22198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>518</v>
       </c>
@@ -22227,7 +22262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>618</v>
       </c>
@@ -22291,7 +22326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>711</v>
       </c>
@@ -22355,7 +22390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>1452</v>
       </c>
@@ -22422,7 +22457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>519</v>
       </c>
@@ -22489,7 +22524,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>877</v>
       </c>
@@ -22556,7 +22591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>1109</v>
       </c>
@@ -22623,7 +22658,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>1123</v>
       </c>
@@ -22690,7 +22725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>482</v>
       </c>
@@ -22757,7 +22792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>318</v>
       </c>
@@ -22824,7 +22859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>328</v>
       </c>
@@ -22891,7 +22926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>558</v>
       </c>
@@ -22958,7 +22993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>596</v>
       </c>
@@ -23086,7 +23121,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>958</v>
       </c>
@@ -23153,7 +23188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>1126</v>
       </c>
@@ -23220,7 +23255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>1132</v>
       </c>
@@ -23287,7 +23322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>824</v>
       </c>
@@ -23351,7 +23386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>609</v>
       </c>
@@ -23418,7 +23453,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>1147</v>
       </c>
@@ -23485,7 +23520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>445</v>
       </c>
@@ -23552,7 +23587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>1094</v>
       </c>
@@ -23619,7 +23654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>679</v>
       </c>
@@ -23686,7 +23721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>179</v>
       </c>
@@ -23753,7 +23788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>410</v>
       </c>
@@ -23820,7 +23855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>446</v>
       </c>
@@ -23887,7 +23922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>489</v>
       </c>
@@ -23951,7 +23986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>578</v>
       </c>
@@ -24018,7 +24053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>612</v>
       </c>
@@ -24082,7 +24117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>706</v>
       </c>
@@ -24149,7 +24184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>768</v>
       </c>
@@ -24216,7 +24251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>831</v>
       </c>
@@ -24283,7 +24318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>914</v>
       </c>
@@ -24350,7 +24385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>951</v>
       </c>
@@ -24414,7 +24449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>1156</v>
       </c>
@@ -24481,7 +24516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>1411</v>
       </c>
@@ -24548,7 +24583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>350</v>
       </c>
@@ -24612,7 +24647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>795</v>
       </c>
@@ -24679,7 +24714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>1167</v>
       </c>
@@ -24746,7 +24781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>136</v>
       </c>
@@ -24810,7 +24845,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>479</v>
       </c>
@@ -24874,7 +24909,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>1181</v>
       </c>
@@ -24941,7 +24976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>1187</v>
       </c>
@@ -25008,7 +25043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>835</v>
       </c>
@@ -25075,7 +25110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>66</v>
       </c>
@@ -25142,7 +25177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>1216</v>
       </c>
@@ -25209,7 +25244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>246</v>
       </c>
@@ -25276,7 +25311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -25340,7 +25375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>532</v>
       </c>
@@ -25407,7 +25442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>777</v>
       </c>
@@ -25474,7 +25509,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>868</v>
       </c>
@@ -25541,7 +25576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>1019</v>
       </c>
@@ -25608,7 +25643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>1243</v>
       </c>
@@ -25739,7 +25774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>689</v>
       </c>
@@ -25806,7 +25841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>1237</v>
       </c>
@@ -25873,7 +25908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>708</v>
       </c>
@@ -25940,7 +25975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>1246</v>
       </c>
@@ -26007,7 +26042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>1249</v>
       </c>
@@ -26074,7 +26109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>561</v>
       </c>
@@ -26141,7 +26176,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>338</v>
       </c>
@@ -26208,7 +26243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>367</v>
       </c>
@@ -26275,7 +26310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>544</v>
       </c>
@@ -26342,7 +26377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>585</v>
       </c>
@@ -26409,7 +26444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>741</v>
       </c>
@@ -26473,7 +26508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>750</v>
       </c>
@@ -26537,7 +26572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>851</v>
       </c>
@@ -26604,7 +26639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>855</v>
       </c>
@@ -26671,7 +26706,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>971</v>
       </c>
@@ -26738,7 +26773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>982</v>
       </c>
@@ -26805,7 +26840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>1256</v>
       </c>
@@ -26936,7 +26971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>1385</v>
       </c>
@@ -27003,7 +27038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>204</v>
       </c>
@@ -27070,7 +27105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>935</v>
       </c>
@@ -27134,7 +27169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>1115</v>
       </c>
@@ -27201,7 +27236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>1274</v>
       </c>
@@ -27268,7 +27303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>1277</v>
       </c>
@@ -27335,7 +27370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>132</v>
       </c>
@@ -27466,7 +27501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>643</v>
       </c>
@@ -27533,7 +27568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>666</v>
       </c>
@@ -27597,7 +27632,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>1298</v>
       </c>
@@ -27664,7 +27699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>443</v>
       </c>
@@ -27728,7 +27763,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>500</v>
       </c>
@@ -27792,7 +27827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>658</v>
       </c>
@@ -27856,7 +27891,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>1059</v>
       </c>
@@ -27923,7 +27958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>1499</v>
       </c>
@@ -27981,7 +28016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>1574</v>
       </c>
@@ -28048,7 +28083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>1300</v>
       </c>
@@ -28115,7 +28150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>1303</v>
       </c>
@@ -28182,7 +28217,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>1309</v>
       </c>
@@ -28249,7 +28284,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>1225</v>
       </c>
@@ -28316,7 +28351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>756</v>
       </c>
@@ -28383,7 +28418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>648</v>
       </c>
@@ -28450,7 +28485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>248</v>
       </c>
@@ -28578,7 +28613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>407</v>
       </c>
@@ -28645,7 +28680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>468</v>
       </c>
@@ -28712,7 +28747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>563</v>
       </c>
@@ -28776,7 +28811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>606</v>
       </c>
@@ -28843,7 +28878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>691</v>
       </c>
@@ -28910,7 +28945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>793</v>
       </c>
@@ -28977,7 +29012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>853</v>
       </c>
@@ -29044,7 +29079,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>909</v>
       </c>
@@ -29111,7 +29146,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>916</v>
       </c>
@@ -29178,7 +29213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>974</v>
       </c>
@@ -29242,7 +29277,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>984</v>
       </c>
@@ -29370,7 +29405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>1107</v>
       </c>
@@ -29437,7 +29472,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>1175</v>
       </c>
@@ -29504,7 +29539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>1178</v>
       </c>
@@ -29571,7 +29606,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>1327</v>
       </c>
@@ -29638,7 +29673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>1329</v>
       </c>
@@ -29769,7 +29804,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>1472</v>
       </c>
@@ -29836,7 +29871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>1599</v>
       </c>
@@ -29903,7 +29938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>1213</v>
       </c>
@@ -29970,7 +30005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>620</v>
       </c>
@@ -30037,7 +30072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>1060</v>
       </c>
@@ -30101,7 +30136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>1124</v>
       </c>
@@ -30168,7 +30203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>1434</v>
       </c>
@@ -30232,7 +30267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>1210</v>
       </c>
@@ -30299,7 +30334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>1234</v>
       </c>
@@ -30366,7 +30401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>806</v>
       </c>
@@ -30433,7 +30468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>1379</v>
       </c>
@@ -30500,7 +30535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>866</v>
       </c>
@@ -30564,7 +30599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>1383</v>
       </c>
@@ -30631,7 +30666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>826</v>
       </c>
@@ -30698,7 +30733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>1394</v>
       </c>
@@ -30765,7 +30800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>568</v>
       </c>
@@ -30829,7 +30864,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>638</v>
       </c>
@@ -30896,7 +30931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>779</v>
       </c>
@@ -31091,7 +31126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>1096</v>
       </c>
@@ -31158,7 +31193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>1785</v>
       </c>
@@ -31225,7 +31260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>1407</v>
       </c>
@@ -31292,7 +31327,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>905</v>
       </c>
@@ -31359,7 +31394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>1416</v>
       </c>
@@ -31426,7 +31461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>925</v>
       </c>
@@ -31493,7 +31528,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>1038</v>
       </c>
@@ -31560,7 +31595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>569</v>
       </c>
@@ -31627,7 +31662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>1223</v>
       </c>
@@ -31694,7 +31729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>1415</v>
       </c>
@@ -31761,7 +31796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>1125</v>
       </c>
@@ -31828,7 +31863,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>1420</v>
       </c>
@@ -31895,7 +31930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>1427</v>
       </c>
@@ -31962,7 +31997,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>1429</v>
       </c>
@@ -32029,7 +32064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>889</v>
       </c>
@@ -32096,7 +32131,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>1437</v>
       </c>
@@ -32163,7 +32198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>128</v>
       </c>
@@ -32230,7 +32265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>199</v>
       </c>
@@ -32294,7 +32329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>474</v>
       </c>
@@ -32425,7 +32460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>539</v>
       </c>
@@ -32489,7 +32524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>542</v>
       </c>
@@ -32556,7 +32591,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>551</v>
       </c>
@@ -32620,7 +32655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>587</v>
       </c>
@@ -32687,7 +32722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>650</v>
       </c>
@@ -32754,7 +32789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>722</v>
       </c>
@@ -32818,7 +32853,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>821</v>
       </c>
@@ -32949,7 +32984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>922</v>
       </c>
@@ -33013,7 +33048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>964</v>
       </c>
@@ -33080,7 +33115,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>978</v>
       </c>
@@ -33147,7 +33182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>995</v>
       </c>
@@ -33214,7 +33249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>1140</v>
       </c>
@@ -33281,7 +33316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>1331</v>
       </c>
@@ -33348,7 +33383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>1347</v>
       </c>
@@ -33415,7 +33450,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>1597</v>
       </c>
@@ -33482,7 +33517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>1616</v>
       </c>
@@ -33549,7 +33584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>1624</v>
       </c>
@@ -33613,7 +33648,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>1922</v>
       </c>
@@ -33680,7 +33715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>1767</v>
       </c>
@@ -33747,7 +33782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>1443</v>
       </c>
@@ -33814,7 +33849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>1066</v>
       </c>
@@ -33881,7 +33916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>1044</v>
       </c>
@@ -33948,7 +33983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>704</v>
       </c>
@@ -34015,7 +34050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>1319</v>
       </c>
@@ -34082,7 +34117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>959</v>
       </c>
@@ -34149,7 +34184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>1112</v>
       </c>
@@ -34216,7 +34251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>1946</v>
       </c>
@@ -34347,7 +34382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>1486</v>
       </c>
@@ -34414,7 +34449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>300</v>
       </c>
@@ -34478,7 +34513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>723</v>
       </c>
@@ -34545,7 +34580,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>753</v>
       </c>
@@ -34612,7 +34647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>1146</v>
       </c>
@@ -34676,7 +34711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>1342</v>
       </c>
@@ -34743,7 +34778,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>1368</v>
       </c>
@@ -34810,7 +34845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>1729</v>
       </c>
@@ -34877,7 +34912,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>1776</v>
       </c>
@@ -34944,7 +34979,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="415" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>1501</v>
       </c>
@@ -35011,7 +35046,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>516</v>
       </c>
@@ -35075,7 +35110,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>1508</v>
       </c>
@@ -35142,7 +35177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>1459</v>
       </c>
@@ -35209,7 +35244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>1064</v>
       </c>
@@ -35276,7 +35311,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>1514</v>
       </c>
@@ -35343,7 +35378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>1517</v>
       </c>
@@ -35410,7 +35445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>1519</v>
       </c>
@@ -35471,7 +35506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>524</v>
       </c>
@@ -35535,7 +35570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>1530</v>
       </c>
@@ -35602,7 +35637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>1532</v>
       </c>
@@ -35669,7 +35704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>610</v>
       </c>
@@ -35733,7 +35768,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>838</v>
       </c>
@@ -35800,7 +35835,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>1102</v>
       </c>
@@ -35931,7 +35966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>1537</v>
       </c>
@@ -35992,7 +36027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>1543</v>
       </c>
@@ -36059,7 +36094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>1545</v>
       </c>
@@ -36126,7 +36161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>1045</v>
       </c>
@@ -36193,7 +36228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>1547</v>
       </c>
@@ -36260,7 +36295,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>1549</v>
       </c>
@@ -36327,7 +36362,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>2007</v>
       </c>
@@ -36394,7 +36429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>1554</v>
       </c>
@@ -36461,7 +36496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>1562</v>
       </c>
@@ -36522,7 +36557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>325</v>
       </c>
@@ -36589,7 +36624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>376</v>
       </c>
@@ -36656,7 +36691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>640</v>
       </c>
@@ -36723,7 +36758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>685</v>
       </c>
@@ -36790,7 +36825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>732</v>
       </c>
@@ -36854,7 +36889,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>764</v>
       </c>
@@ -36921,7 +36956,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>845</v>
       </c>
@@ -36988,7 +37023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>863</v>
       </c>
@@ -37052,7 +37087,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>897</v>
       </c>
@@ -37119,7 +37154,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>903</v>
       </c>
@@ -37186,7 +37221,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>1021</v>
       </c>
@@ -37253,7 +37288,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>1026</v>
       </c>
@@ -37378,7 +37413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>1058</v>
       </c>
@@ -37433,7 +37468,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>1071</v>
       </c>
@@ -37500,7 +37535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>1073</v>
       </c>
@@ -37567,7 +37602,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>1084</v>
       </c>
@@ -37634,7 +37669,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>1130</v>
       </c>
@@ -37698,7 +37733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>1228</v>
       </c>
@@ -37765,7 +37800,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>1334</v>
       </c>
@@ -37832,7 +37867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>1351</v>
       </c>
@@ -37899,7 +37934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>1396</v>
       </c>
@@ -37963,7 +37998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>1426</v>
       </c>
@@ -38030,7 +38065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>1457</v>
       </c>
@@ -38094,7 +38129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>1478</v>
       </c>
@@ -38161,7 +38196,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>1489</v>
       </c>
@@ -38292,7 +38327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>1585</v>
       </c>
@@ -38481,7 +38516,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>1817</v>
       </c>
@@ -38548,7 +38583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>1829</v>
       </c>
@@ -38615,7 +38650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>1572</v>
       </c>
@@ -38682,7 +38717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>1116</v>
       </c>
@@ -38749,7 +38784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>1588</v>
       </c>
@@ -38816,7 +38851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>1001</v>
       </c>
@@ -38883,7 +38918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>1154</v>
       </c>
@@ -38947,7 +38982,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>1594</v>
       </c>
@@ -39011,7 +39046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>487</v>
       </c>
@@ -39078,7 +39113,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>603</v>
       </c>
@@ -39145,7 +39180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>930</v>
       </c>
@@ -39212,7 +39247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>1017</v>
       </c>
@@ -39276,7 +39311,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>1093</v>
       </c>
@@ -39340,7 +39375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>1449</v>
       </c>
@@ -39407,7 +39442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>1744</v>
       </c>
@@ -39474,7 +39509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>1387</v>
       </c>
@@ -39541,7 +39576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>1321</v>
       </c>
@@ -39608,7 +39643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>927</v>
       </c>
@@ -39675,7 +39710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>1257</v>
       </c>
@@ -39742,7 +39777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>1609</v>
       </c>
@@ -39800,7 +39835,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>448</v>
       </c>
@@ -39864,7 +39899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>776</v>
       </c>
@@ -39931,7 +39966,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>1040</v>
       </c>
@@ -39998,7 +40033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>1047</v>
       </c>
@@ -40065,7 +40100,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>1135</v>
       </c>
@@ -40132,7 +40167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>631</v>
       </c>
@@ -40199,7 +40234,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>1145</v>
       </c>
@@ -40266,7 +40301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>1307</v>
       </c>
@@ -40333,7 +40368,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>1205</v>
       </c>
@@ -40400,7 +40435,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>1220</v>
       </c>
@@ -40467,7 +40502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>233</v>
       </c>
@@ -40534,7 +40569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>555</v>
       </c>
@@ -40601,7 +40636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>593</v>
       </c>
@@ -40668,7 +40703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>684</v>
       </c>
@@ -40732,7 +40767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>773</v>
       </c>
@@ -40799,7 +40834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>796</v>
       </c>
@@ -40930,7 +40965,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>933</v>
       </c>
@@ -40997,7 +41032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>937</v>
       </c>
@@ -41064,7 +41099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>1029</v>
       </c>
@@ -41131,7 +41166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>1061</v>
       </c>
@@ -41198,7 +41233,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>1079</v>
       </c>
@@ -41329,7 +41364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>1106</v>
       </c>
@@ -41393,7 +41428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>1129</v>
       </c>
@@ -41460,7 +41495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>1150</v>
       </c>
@@ -41527,7 +41562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>1190</v>
       </c>
@@ -41594,7 +41629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>1345</v>
       </c>
@@ -41725,7 +41760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>1516</v>
       </c>
@@ -41792,7 +41827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>1619</v>
       </c>
@@ -42039,7 +42074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>1857</v>
       </c>
@@ -42106,7 +42141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>1649</v>
       </c>
@@ -42173,7 +42208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>1662</v>
       </c>
@@ -42240,7 +42275,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>1664</v>
       </c>
@@ -42307,7 +42342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>451</v>
       </c>
@@ -42432,7 +42467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>1253</v>
       </c>
@@ -42499,7 +42534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>1684</v>
       </c>
@@ -42566,7 +42601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>422</v>
       </c>
@@ -42633,7 +42668,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>811</v>
       </c>
@@ -42700,7 +42735,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>907</v>
       </c>
@@ -42764,7 +42799,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>1262</v>
       </c>
@@ -42831,7 +42866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>1409</v>
       </c>
@@ -42898,7 +42933,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>1534</v>
       </c>
@@ -43029,7 +43064,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>1840</v>
       </c>
@@ -43096,7 +43131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>1376</v>
       </c>
@@ -43163,7 +43198,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>1704</v>
       </c>
@@ -43358,7 +43393,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>1905</v>
       </c>
@@ -43425,7 +43460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>1712</v>
       </c>
@@ -43492,7 +43527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>1716</v>
       </c>
@@ -43559,7 +43594,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -43626,7 +43661,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>628</v>
       </c>
@@ -43754,7 +43789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>675</v>
       </c>
@@ -43882,7 +43917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>759</v>
       </c>
@@ -43949,7 +43984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>872</v>
       </c>
@@ -44016,7 +44051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>944</v>
       </c>
@@ -44147,7 +44182,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>968</v>
       </c>
@@ -44214,7 +44249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>992</v>
       </c>
@@ -44281,7 +44316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>1036</v>
       </c>
@@ -44348,7 +44383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>1088</v>
       </c>
@@ -44415,7 +44450,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>1137</v>
       </c>
@@ -44479,7 +44514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>1166</v>
       </c>
@@ -44546,7 +44581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>1184</v>
       </c>
@@ -44613,7 +44648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>1201</v>
       </c>
@@ -44680,7 +44715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>1239</v>
       </c>
@@ -44747,7 +44782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>1291</v>
       </c>
@@ -44814,7 +44849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>1295</v>
       </c>
@@ -44878,7 +44913,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>1312</v>
       </c>
@@ -45073,7 +45108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>1373</v>
       </c>
@@ -45140,7 +45175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>1392</v>
       </c>
@@ -45207,7 +45242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>1403</v>
       </c>
@@ -45335,7 +45370,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>9</v>
       </c>
@@ -45402,7 +45437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>1551</v>
       </c>
@@ -45469,7 +45504,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>1564</v>
       </c>
@@ -45533,7 +45568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>1672</v>
       </c>
@@ -45600,7 +45635,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>1676</v>
       </c>
@@ -45667,7 +45702,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="578" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>1898</v>
       </c>
@@ -45734,7 +45769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>2330</v>
       </c>
@@ -45795,7 +45830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>1721</v>
       </c>
@@ -45862,7 +45897,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>388</v>
       </c>
@@ -45929,7 +45964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>1962</v>
       </c>
@@ -46118,7 +46153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="585" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>1356</v>
       </c>
@@ -46182,7 +46217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="586" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>1558</v>
       </c>
@@ -46249,7 +46284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>1734</v>
       </c>
@@ -46316,7 +46351,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="588" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>1737</v>
       </c>
@@ -46383,7 +46418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>1042</v>
       </c>
@@ -46450,7 +46485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>819</v>
       </c>
@@ -46517,7 +46552,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>1750</v>
       </c>
@@ -46584,7 +46619,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>733</v>
       </c>
@@ -46651,7 +46686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>1118</v>
       </c>
@@ -46718,7 +46753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="594" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>1757</v>
       </c>
@@ -46785,7 +46820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>1400</v>
       </c>
@@ -46852,7 +46887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>652</v>
       </c>
@@ -46919,7 +46954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>1117</v>
       </c>
@@ -46983,7 +47018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="598" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>1285</v>
       </c>
@@ -47114,7 +47149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>1522</v>
       </c>
@@ -47245,7 +47280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>1731</v>
       </c>
@@ -47312,7 +47347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="603" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>1260</v>
       </c>
@@ -47379,7 +47414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>1566</v>
       </c>
@@ -47446,7 +47481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>534</v>
       </c>
@@ -47513,7 +47548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>565</v>
       </c>
@@ -47580,7 +47615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>616</v>
       </c>
@@ -47647,7 +47682,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="608" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>661</v>
       </c>
@@ -47714,7 +47749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="609" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>800</v>
       </c>
@@ -47781,7 +47816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>876</v>
       </c>
@@ -47912,7 +47947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="612" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>941</v>
       </c>
@@ -48107,7 +48142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>1193</v>
       </c>
@@ -48171,7 +48206,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="616" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>1265</v>
       </c>
@@ -48238,7 +48273,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>1568</v>
       </c>
@@ -48305,7 +48340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>1611</v>
       </c>
@@ -48372,7 +48407,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="619" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>1636</v>
       </c>
@@ -48436,7 +48471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>1648</v>
       </c>
@@ -48500,7 +48535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="621" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>1693</v>
       </c>
@@ -48567,7 +48602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>1723</v>
       </c>
@@ -48634,7 +48669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>1740</v>
       </c>
@@ -48701,7 +48736,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="624" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>1749</v>
       </c>
@@ -48768,7 +48803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>1783</v>
       </c>
@@ -48835,7 +48870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>1814</v>
       </c>
@@ -48902,7 +48937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="627" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>1894</v>
       </c>
@@ -48969,7 +49004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>2017</v>
       </c>
@@ -49030,7 +49065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="629" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>1365</v>
       </c>
@@ -49097,7 +49132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="630" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>1142</v>
       </c>
@@ -49164,7 +49199,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="631" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>1314</v>
       </c>
@@ -49231,7 +49266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>1626</v>
       </c>
@@ -49298,7 +49333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>994</v>
       </c>
@@ -49365,7 +49400,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="634" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>1778</v>
       </c>
@@ -49432,7 +49467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>1644</v>
       </c>
@@ -49499,7 +49534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>1674</v>
       </c>
@@ -49563,7 +49598,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="637" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>1720</v>
       </c>
@@ -49627,7 +49662,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="638" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>1791</v>
       </c>
@@ -49694,7 +49729,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="639" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>1600</v>
       </c>
@@ -49761,7 +49796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="640" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>1796</v>
       </c>
@@ -49828,7 +49863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="641" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>1198</v>
       </c>
@@ -49892,7 +49927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>1540</v>
       </c>
@@ -49959,7 +49994,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="643" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>1660</v>
       </c>
@@ -50026,7 +50061,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="644" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>1698</v>
       </c>
@@ -50090,7 +50125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>1972</v>
       </c>
@@ -50157,7 +50192,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>1163</v>
       </c>
@@ -50224,7 +50259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="647" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>1467</v>
       </c>
@@ -50291,7 +50326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>1806</v>
       </c>
@@ -50352,7 +50387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>1382</v>
       </c>
@@ -50419,7 +50454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="650" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>1811</v>
       </c>
@@ -50480,7 +50515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="651" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>508</v>
       </c>
@@ -50544,7 +50579,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="652" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>1158</v>
       </c>
@@ -50608,7 +50643,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>1236</v>
       </c>
@@ -50675,7 +50710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>1398</v>
       </c>
@@ -50742,7 +50777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="655" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>1447</v>
       </c>
@@ -50809,7 +50844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>1887</v>
       </c>
@@ -50876,7 +50911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>1906</v>
       </c>
@@ -50943,7 +50978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>2039</v>
       </c>
@@ -51010,7 +51045,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="659" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>1710</v>
       </c>
@@ -51077,7 +51112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="660" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>372</v>
       </c>
@@ -51141,7 +51176,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="661" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>575</v>
       </c>
@@ -51208,7 +51243,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="662" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>671</v>
       </c>
@@ -51275,7 +51310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="663" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>694</v>
       </c>
@@ -51342,7 +51377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>847</v>
       </c>
@@ -51409,7 +51444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>849</v>
       </c>
@@ -51476,7 +51511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>880</v>
       </c>
@@ -51540,7 +51575,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="667" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>1104</v>
       </c>
@@ -51607,7 +51642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="668" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>1161</v>
       </c>
@@ -51674,7 +51709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="669" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>1170</v>
       </c>
@@ -51738,7 +51773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>1231</v>
       </c>
@@ -51805,7 +51840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>1286</v>
       </c>
@@ -51872,7 +51907,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>1340</v>
       </c>
@@ -51939,7 +51974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="673" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>1405</v>
       </c>
@@ -52006,7 +52041,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="674" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>1423</v>
       </c>
@@ -52073,7 +52108,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="675" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>1430</v>
       </c>
@@ -52140,7 +52175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="676" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>1441</v>
       </c>
@@ -52207,7 +52242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>1484</v>
       </c>
@@ -52271,7 +52306,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="678" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>1491</v>
       </c>
@@ -52338,7 +52373,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="679" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>1504</v>
       </c>
@@ -52405,7 +52440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="680" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>1511</v>
       </c>
@@ -52472,7 +52507,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="681" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>1576</v>
       </c>
@@ -52539,7 +52574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>1689</v>
       </c>
@@ -52606,7 +52641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="683" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>1702</v>
       </c>
@@ -52673,7 +52708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="684" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>1718</v>
       </c>
@@ -52740,7 +52775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>1742</v>
       </c>
@@ -52801,7 +52836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>1787</v>
       </c>
@@ -52868,7 +52903,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="687" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>1839</v>
       </c>
@@ -52935,7 +52970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="688" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>1869</v>
       </c>
@@ -53002,7 +53037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="689" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>1926</v>
       </c>
@@ -53069,7 +53104,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="690" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>2086</v>
       </c>
@@ -53130,7 +53165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="691" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>1461</v>
       </c>
@@ -53197,7 +53232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="692" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>1076</v>
       </c>
@@ -53264,7 +53299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="693" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>1440</v>
       </c>
@@ -53331,7 +53366,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="694" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>1638</v>
       </c>
@@ -53398,7 +53433,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="695" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>1682</v>
       </c>
@@ -53465,7 +53500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="696" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>1837</v>
       </c>
@@ -53532,7 +53567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="697" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>1686</v>
       </c>
@@ -53599,7 +53634,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="698" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>1850</v>
       </c>
@@ -53660,7 +53695,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="699" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>1628</v>
       </c>
@@ -53727,7 +53762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>1054</v>
       </c>
@@ -53791,7 +53826,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="701" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>1195</v>
       </c>
@@ -53858,7 +53893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>1336</v>
       </c>
@@ -53925,7 +53960,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="703" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>1475</v>
       </c>
@@ -53992,7 +54027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="704" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>1622</v>
       </c>
@@ -54059,7 +54094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="705" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>1753</v>
       </c>
@@ -54126,7 +54161,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="706" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>1827</v>
       </c>
@@ -54193,7 +54228,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="707" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>1892</v>
       </c>
@@ -54260,7 +54295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="708" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>1855</v>
       </c>
@@ -54327,7 +54362,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="709" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>1858</v>
       </c>
@@ -54382,7 +54417,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="710" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>1860</v>
       </c>
@@ -54449,7 +54484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>1012</v>
       </c>
@@ -54516,7 +54551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="712" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>783</v>
       </c>
@@ -54583,7 +54618,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="713" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>893</v>
       </c>
@@ -54647,7 +54682,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="714" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>954</v>
       </c>
@@ -54711,7 +54746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>1023</v>
       </c>
@@ -54775,7 +54810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>1240</v>
       </c>
@@ -54839,7 +54874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>1524</v>
       </c>
@@ -54906,7 +54941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="718" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>1615</v>
       </c>
@@ -54973,7 +55008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>1822</v>
       </c>
@@ -55040,7 +55075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="720" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>1878</v>
       </c>
@@ -55104,7 +55139,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="721" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>1605</v>
       </c>
@@ -55171,7 +55206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="722" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>1880</v>
       </c>
@@ -55238,7 +55273,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="723" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>1252</v>
       </c>
@@ -55305,7 +55340,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="724" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>858</v>
       </c>
@@ -55369,7 +55404,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="725" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>1202</v>
       </c>
@@ -55436,7 +55471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="726" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>1282</v>
       </c>
@@ -55500,7 +55535,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="727" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>1388</v>
       </c>
@@ -55567,7 +55602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="728" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>1559</v>
       </c>
@@ -55634,7 +55669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="729" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>1690</v>
       </c>
@@ -55701,7 +55736,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="730" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>1641</v>
       </c>
@@ -55768,7 +55803,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="731" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>1895</v>
       </c>
@@ -55835,7 +55870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="732" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>268</v>
       </c>
@@ -55902,7 +55937,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="733" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>805</v>
       </c>
@@ -55966,7 +56001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>813</v>
       </c>
@@ -56030,7 +56065,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="735" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>1207</v>
       </c>
@@ -56097,7 +56132,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="736" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>1215</v>
       </c>
@@ -56164,7 +56199,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="737" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>1362</v>
       </c>
@@ -56231,7 +56266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="738" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>1446</v>
       </c>
@@ -56298,7 +56333,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="739" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>1528</v>
       </c>
@@ -56356,7 +56391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>1570</v>
       </c>
@@ -56423,7 +56458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="741" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>1570</v>
       </c>
@@ -56490,7 +56525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="742" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>1582</v>
       </c>
@@ -56557,7 +56592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="743" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>1603</v>
       </c>
@@ -56621,7 +56656,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="744" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>1631</v>
       </c>
@@ -56685,7 +56720,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="745" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>1642</v>
       </c>
@@ -56752,7 +56787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>1667</v>
       </c>
@@ -56813,7 +56848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="747" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>1816</v>
       </c>
@@ -56880,7 +56915,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="748" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>1819</v>
       </c>
@@ -56947,7 +56982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="749" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>1834</v>
       </c>
@@ -57011,7 +57046,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="750" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>1883</v>
       </c>
@@ -57078,7 +57113,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="751" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>1974</v>
       </c>
@@ -57145,7 +57180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>2034</v>
       </c>
@@ -57212,7 +57247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="753" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>2072</v>
       </c>
@@ -57279,7 +57314,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="754" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>2079</v>
       </c>
@@ -57346,7 +57381,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="755" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>1656</v>
       </c>
@@ -57410,7 +57445,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="756" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>1217</v>
       </c>
@@ -57477,7 +57512,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="757" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>1755</v>
       </c>
@@ -57544,7 +57579,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="758" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>1003</v>
       </c>
@@ -57611,7 +57646,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="759" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>1120</v>
       </c>
@@ -57675,7 +57710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>1773</v>
       </c>
@@ -57739,7 +57774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="761" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>1789</v>
       </c>
@@ -57806,7 +57841,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="762" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>1914</v>
       </c>
@@ -57873,7 +57908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>1916</v>
       </c>
@@ -57934,7 +57969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="764" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>355</v>
       </c>
@@ -58001,7 +58036,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="765" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>943</v>
       </c>
@@ -58065,7 +58100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>1271</v>
       </c>
@@ -58129,7 +58164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>1493</v>
       </c>
@@ -58193,7 +58228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="768" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>1670</v>
       </c>
@@ -58257,7 +58292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="769" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>1853</v>
       </c>
@@ -58315,7 +58350,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="770" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>1658</v>
       </c>
@@ -58382,7 +58417,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="771" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>1212</v>
       </c>
@@ -58449,7 +58484,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="772" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>1557</v>
       </c>
@@ -58516,7 +58551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="773" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>1746</v>
       </c>
@@ -58583,7 +58618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="774" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>1968</v>
       </c>
@@ -58650,7 +58685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>1925</v>
       </c>
@@ -58717,7 +58752,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="776" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>900</v>
       </c>
@@ -58781,7 +58816,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="777" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>1633</v>
       </c>
@@ -58845,7 +58880,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="778" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>1679</v>
       </c>
@@ -58909,7 +58944,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="779" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>1804</v>
       </c>
@@ -58976,7 +59011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="780" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>1934</v>
       </c>
@@ -59043,7 +59078,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="781" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>1936</v>
       </c>
@@ -59110,7 +59145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>1620</v>
       </c>
@@ -59177,7 +59212,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="783" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>1943</v>
       </c>
@@ -59244,7 +59279,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="784" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>1284</v>
       </c>
@@ -59311,7 +59346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="785" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>1358</v>
       </c>
@@ -59375,7 +59410,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="786" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>1959</v>
       </c>
@@ -59442,7 +59477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="787" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>841</v>
       </c>
@@ -59506,7 +59541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>1293</v>
       </c>
@@ -59573,7 +59608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="789" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>1323</v>
       </c>
@@ -59640,7 +59675,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="790" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>1470</v>
       </c>
@@ -59707,7 +59742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>1579</v>
       </c>
@@ -59771,7 +59806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="792" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>1645</v>
       </c>
@@ -59838,7 +59873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>1976</v>
       </c>
@@ -59905,7 +59940,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="794" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>2020</v>
       </c>
@@ -59966,7 +60001,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="795" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>2084</v>
       </c>
@@ -60033,7 +60068,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="796" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>2234</v>
       </c>
@@ -60094,7 +60129,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="797" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>1966</v>
       </c>
@@ -60161,7 +60196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="798" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>1872</v>
       </c>
@@ -60228,7 +60263,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="799" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>1979</v>
       </c>
@@ -60295,7 +60330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="800" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>1986</v>
       </c>
@@ -60362,7 +60397,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="801" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>1794</v>
       </c>
@@ -60426,7 +60461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="802" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>1230</v>
       </c>
@@ -60493,7 +60528,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="803" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>1464</v>
       </c>
@@ -60560,7 +60595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="804" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>1587</v>
       </c>
@@ -60627,7 +60662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>2002</v>
       </c>
@@ -60688,7 +60723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="806" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>1338</v>
       </c>
@@ -60755,7 +60790,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="807" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>1760</v>
       </c>
@@ -60822,7 +60857,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="808" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>1949</v>
       </c>
@@ -60889,7 +60924,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="809" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>719</v>
       </c>
@@ -60953,7 +60988,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="810" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>1460</v>
       </c>
@@ -61017,7 +61052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>1696</v>
       </c>
@@ -61084,7 +61119,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="812" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>1964</v>
       </c>
@@ -61151,7 +61186,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="813" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>1862</v>
       </c>
@@ -61218,7 +61253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="814" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>1876</v>
       </c>
@@ -61282,7 +61317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>1717</v>
       </c>
@@ -61346,7 +61381,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="816" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>1999</v>
       </c>
@@ -61413,7 +61448,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="817" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>1714</v>
       </c>
@@ -61480,7 +61515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="818" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>1724</v>
       </c>
@@ -61547,7 +61582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="819" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>598</v>
       </c>
@@ -61614,7 +61649,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="820" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>738</v>
       </c>
@@ -61678,7 +61713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="821" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>823</v>
       </c>
@@ -61742,7 +61777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="822" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>1708</v>
       </c>
@@ -61806,7 +61841,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="823" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>1762</v>
       </c>
@@ -61873,7 +61908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="824" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>1769</v>
       </c>
@@ -61934,7 +61969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="825" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>1885</v>
       </c>
@@ -62001,7 +62036,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="826" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>1951</v>
       </c>
@@ -62068,7 +62103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="827" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>2130</v>
       </c>
@@ -62129,7 +62164,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="828" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
         <v>2157</v>
       </c>
@@ -62190,7 +62225,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="829" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
         <v>1843</v>
       </c>
@@ -62257,7 +62292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="830" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>1781</v>
       </c>
@@ -62321,7 +62356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>1653</v>
       </c>
@@ -62388,7 +62423,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="832" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>2331</v>
       </c>
@@ -62434,7 +62469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="833" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
         <v>1831</v>
       </c>
@@ -62495,7 +62530,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="834" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
         <v>1907</v>
       </c>
@@ -62562,7 +62597,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="835" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
         <v>1799</v>
       </c>
@@ -62629,7 +62664,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="836" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
         <v>668</v>
       </c>
@@ -62696,7 +62731,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="837" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
         <v>1099</v>
       </c>
@@ -62760,7 +62795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
         <v>1180</v>
       </c>
@@ -62824,7 +62859,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="839" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
         <v>1956</v>
       </c>
@@ -62891,7 +62926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="840" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
         <v>2090</v>
       </c>
@@ -62952,7 +62987,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="841" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
         <v>1353</v>
       </c>
@@ -63016,7 +63051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="842" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>1818</v>
       </c>
@@ -63083,7 +63118,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="843" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
         <v>1835</v>
       </c>
@@ -63150,7 +63185,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="844" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
         <v>1912</v>
       </c>
@@ -63211,7 +63246,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="845" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A845" t="s">
         <v>1288</v>
       </c>
@@ -63278,7 +63313,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="846" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
         <v>1919</v>
       </c>
@@ -63336,7 +63371,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="847" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
         <v>1028</v>
       </c>
@@ -63403,7 +63438,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="848" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
         <v>996</v>
       </c>
@@ -63467,7 +63502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="849" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A849" t="s">
         <v>1846</v>
       </c>
@@ -63531,7 +63566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A850" t="s">
         <v>1391</v>
       </c>
@@ -63598,7 +63633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A851" t="s">
         <v>1765</v>
       </c>
@@ -63665,7 +63700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="852" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
         <v>2250</v>
       </c>
@@ -63726,7 +63761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="853" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
         <v>633</v>
       </c>
@@ -63793,7 +63828,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="854" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
         <v>990</v>
       </c>
@@ -63851,7 +63886,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="855" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A855" t="s">
         <v>1305</v>
       </c>
@@ -63909,7 +63944,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="856" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
         <v>1496</v>
       </c>
@@ -63970,7 +64005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="857" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
         <v>1526</v>
       </c>
@@ -64031,7 +64066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="858" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
         <v>1541</v>
       </c>
@@ -64092,7 +64127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="859" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
         <v>1650</v>
       </c>
@@ -64147,7 +64182,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="860" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
         <v>1809</v>
       </c>
@@ -64208,7 +64243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="861" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
         <v>1865</v>
       </c>
@@ -64263,7 +64298,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="862" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
         <v>1868</v>
       </c>
@@ -64318,7 +64353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="863" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A863" t="s">
         <v>1873</v>
       </c>
@@ -64373,7 +64408,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="864" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
         <v>1888</v>
       </c>
@@ -64428,7 +64463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="865" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
         <v>1889</v>
       </c>
@@ -64483,7 +64518,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="866" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
         <v>1900</v>
       </c>
@@ -64538,7 +64573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="867" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
         <v>1902</v>
       </c>
@@ -64593,7 +64628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="868" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
         <v>1909</v>
       </c>
@@ -64648,7 +64683,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="869" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A869" t="s">
         <v>1929</v>
       </c>
@@ -64703,7 +64738,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="870" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A870" t="s">
         <v>1932</v>
       </c>
@@ -64758,7 +64793,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="871" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
         <v>1938</v>
       </c>
@@ -64813,7 +64848,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="872" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
         <v>1940</v>
       </c>
@@ -64868,7 +64903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
         <v>1947</v>
       </c>
@@ -64923,7 +64958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
         <v>1954</v>
       </c>
@@ -64978,7 +65013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="875" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
         <v>1970</v>
       </c>
@@ -65033,7 +65068,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="876" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
         <v>1982</v>
       </c>
@@ -65088,7 +65123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="877" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
         <v>1983</v>
       </c>
@@ -65143,7 +65178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="878" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
         <v>1989</v>
       </c>
@@ -65198,7 +65233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="879" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
         <v>1991</v>
       </c>
@@ -65253,7 +65288,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="880" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
         <v>1993</v>
       </c>
@@ -65308,7 +65343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="881" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
         <v>1994</v>
       </c>
@@ -65363,7 +65398,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="882" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
         <v>1998</v>
       </c>
@@ -65418,7 +65453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
         <v>2006</v>
       </c>
@@ -65473,7 +65508,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="884" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
         <v>2008</v>
       </c>
@@ -65528,7 +65563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="885" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A885" t="s">
         <v>2010</v>
       </c>
@@ -65583,7 +65618,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="886" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A886" t="s">
         <v>2012</v>
       </c>
@@ -65638,7 +65673,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="887" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A887" t="s">
         <v>2015</v>
       </c>
@@ -65693,7 +65728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="888" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A888" t="s">
         <v>2022</v>
       </c>
@@ -65748,7 +65783,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="889" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A889" t="s">
         <v>2024</v>
       </c>
@@ -65803,7 +65838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="890" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
         <v>2028</v>
       </c>
@@ -65858,7 +65893,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="891" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
         <v>2031</v>
       </c>
@@ -65913,7 +65948,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="892" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A892" t="s">
         <v>2037</v>
       </c>
@@ -65968,7 +66003,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="893" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A893" t="s">
         <v>2040</v>
       </c>
@@ -66023,7 +66058,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="894" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A894" t="s">
         <v>2041</v>
       </c>
@@ -66078,7 +66113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A895" t="s">
         <v>2042</v>
       </c>
@@ -66139,7 +66174,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="896" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A896" t="s">
         <v>2045</v>
       </c>
@@ -66194,7 +66229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="897" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A897" t="s">
         <v>2047</v>
       </c>
@@ -66249,7 +66284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="898" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A898" t="s">
         <v>2049</v>
       </c>
@@ -66304,7 +66339,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="899" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A899" t="s">
         <v>2052</v>
       </c>
@@ -66359,7 +66394,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="900" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A900" t="s">
         <v>2054</v>
       </c>
@@ -66414,7 +66449,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="901" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A901" t="s">
         <v>2056</v>
       </c>
@@ -66466,7 +66501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="902" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A902" t="s">
         <v>2059</v>
       </c>
@@ -66521,7 +66556,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="903" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A903" t="s">
         <v>2062</v>
       </c>
@@ -66576,7 +66611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="904" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A904" t="s">
         <v>2065</v>
       </c>
@@ -66631,7 +66666,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="905" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A905" t="s">
         <v>2068</v>
       </c>
@@ -66686,7 +66721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="906" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A906" t="s">
         <v>2069</v>
       </c>
@@ -66741,7 +66776,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="907" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A907" t="s">
         <v>2336</v>
       </c>
@@ -66796,7 +66831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="908" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A908" t="s">
         <v>2075</v>
       </c>
@@ -66851,7 +66886,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="909" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A909" t="s">
         <v>2076</v>
       </c>
@@ -66906,7 +66941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="910" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A910" t="s">
         <v>2080</v>
       </c>
@@ -66961,7 +66996,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="911" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A911" t="s">
         <v>2088</v>
       </c>
@@ -67016,7 +67051,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="912" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A912" t="s">
         <v>2091</v>
       </c>
@@ -67071,7 +67106,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="913" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A913" t="s">
         <v>2092</v>
       </c>
@@ -67126,7 +67161,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="914" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A914" t="s">
         <v>2094</v>
       </c>
@@ -67181,7 +67216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="915" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A915" t="s">
         <v>2097</v>
       </c>
@@ -67236,7 +67271,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="916" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A916" t="s">
         <v>2099</v>
       </c>
@@ -67291,7 +67326,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="917" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A917" t="s">
         <v>2337</v>
       </c>
@@ -67346,7 +67381,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="918" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A918" t="s">
         <v>2102</v>
       </c>
@@ -67401,7 +67436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="919" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A919" t="s">
         <v>2105</v>
       </c>
@@ -67456,7 +67491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="920" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A920" t="s">
         <v>2107</v>
       </c>
@@ -67508,7 +67543,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="921" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A921" t="s">
         <v>2110</v>
       </c>
@@ -67563,7 +67598,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="922" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A922" t="s">
         <v>2112</v>
       </c>
@@ -67618,7 +67653,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="923" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A923" t="s">
         <v>2114</v>
       </c>
@@ -67673,7 +67708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="924" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A924" t="s">
         <v>2115</v>
       </c>
@@ -67725,7 +67760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="925" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A925" t="s">
         <v>2118</v>
       </c>
@@ -67780,7 +67815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="926" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A926" t="s">
         <v>2120</v>
       </c>
@@ -67832,7 +67867,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="927" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A927" t="s">
         <v>2123</v>
       </c>
@@ -67887,7 +67922,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="928" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A928" t="s">
         <v>2126</v>
       </c>
@@ -67942,7 +67977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="929" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A929" t="s">
         <v>2128</v>
       </c>
@@ -67997,7 +68032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="930" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A930" t="s">
         <v>2133</v>
       </c>
@@ -68052,7 +68087,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="931" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A931" t="s">
         <v>2134</v>
       </c>
@@ -68107,7 +68142,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="932" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A932" t="s">
         <v>2137</v>
       </c>
@@ -68162,7 +68197,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="933" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A933" t="s">
         <v>2140</v>
       </c>
@@ -68214,7 +68249,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="934" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A934" t="s">
         <v>2142</v>
       </c>
@@ -68266,7 +68301,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="935" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A935" t="s">
         <v>2145</v>
       </c>
@@ -68321,7 +68356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="936" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A936" t="s">
         <v>2148</v>
       </c>
@@ -68376,7 +68411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="937" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A937" t="s">
         <v>2151</v>
       </c>
@@ -68431,7 +68466,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="938" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A938" t="s">
         <v>2154</v>
       </c>
@@ -68486,7 +68521,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="939" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A939" t="s">
         <v>2160</v>
       </c>
@@ -68541,7 +68576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="940" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A940" t="s">
         <v>2164</v>
       </c>
@@ -68593,7 +68628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="941" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A941" t="s">
         <v>2166</v>
       </c>
@@ -68645,7 +68680,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="942" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A942" t="s">
         <v>2169</v>
       </c>
@@ -68697,7 +68732,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="943" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A943" t="s">
         <v>2172</v>
       </c>
@@ -68752,7 +68787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="944" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A944" t="s">
         <v>2175</v>
       </c>
@@ -68807,7 +68842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="945" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A945" t="s">
         <v>2178</v>
       </c>
@@ -68862,7 +68897,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="946" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A946" t="s">
         <v>2181</v>
       </c>
@@ -68917,7 +68952,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="947" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A947" t="s">
         <v>2184</v>
       </c>
@@ -68969,7 +69004,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="948" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A948" t="s">
         <v>2187</v>
       </c>
@@ -69024,7 +69059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="949" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A949" t="s">
         <v>2191</v>
       </c>
@@ -69079,7 +69114,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="950" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A950" t="s">
         <v>2193</v>
       </c>
@@ -69131,7 +69166,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="951" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A951" t="s">
         <v>2196</v>
       </c>
@@ -69186,7 +69221,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="952" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A952" t="s">
         <v>2197</v>
       </c>
@@ -69241,7 +69276,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="953" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A953" t="s">
         <v>2200</v>
       </c>
@@ -69296,7 +69331,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="954" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A954" t="s">
         <v>2203</v>
       </c>
@@ -69348,7 +69383,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="955" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A955" t="s">
         <v>2206</v>
       </c>
@@ -69400,7 +69435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="956" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A956" t="s">
         <v>2210</v>
       </c>
@@ -69455,7 +69490,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="957" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A957" t="s">
         <v>2212</v>
       </c>
@@ -69510,7 +69545,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="958" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A958" t="s">
         <v>2215</v>
       </c>
@@ -69565,7 +69600,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="959" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A959" t="s">
         <v>2218</v>
       </c>
@@ -69620,7 +69655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="960" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A960" t="s">
         <v>2220</v>
       </c>
@@ -69675,7 +69710,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="961" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A961" t="s">
         <v>2223</v>
       </c>
@@ -69730,7 +69765,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="962" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A962" t="s">
         <v>2346</v>
       </c>
@@ -69782,7 +69817,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="963" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A963" t="s">
         <v>2226</v>
       </c>
@@ -69834,7 +69869,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="964" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A964" t="s">
         <v>2229</v>
       </c>
@@ -69889,7 +69924,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="965" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A965" t="s">
         <v>2231</v>
       </c>
@@ -69944,7 +69979,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="966" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A966" t="s">
         <v>2349</v>
       </c>
@@ -69999,7 +70034,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="967" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A967" t="s">
         <v>2236</v>
       </c>
@@ -70054,7 +70089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="968" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A968" t="s">
         <v>2239</v>
       </c>
@@ -70109,7 +70144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="969" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A969" t="s">
         <v>2241</v>
       </c>
@@ -70161,7 +70196,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="970" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A970" t="s">
         <v>2244</v>
       </c>
@@ -70216,7 +70251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="971" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A971" t="s">
         <v>2247</v>
       </c>
@@ -70268,7 +70303,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="972" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A972" t="s">
         <v>2253</v>
       </c>
@@ -70323,7 +70358,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="973" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A973" t="s">
         <v>2257</v>
       </c>
@@ -70378,7 +70413,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="974" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A974" t="s">
         <v>2258</v>
       </c>
@@ -70433,7 +70468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="975" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A975" t="s">
         <v>2261</v>
       </c>
@@ -70485,7 +70520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="976" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A976" t="s">
         <v>2265</v>
       </c>
@@ -70540,7 +70575,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="977" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A977" t="s">
         <v>2268</v>
       </c>
@@ -70595,7 +70630,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="978" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A978" t="s">
         <v>2271</v>
       </c>
@@ -70650,7 +70685,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="979" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A979" t="s">
         <v>2274</v>
       </c>
@@ -70705,7 +70740,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="980" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A980" t="s">
         <v>2278</v>
       </c>
@@ -70757,7 +70792,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="981" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A981" t="s">
         <v>2281</v>
       </c>
@@ -70812,7 +70847,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="982" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A982" t="s">
         <v>2283</v>
       </c>
@@ -70867,7 +70902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="983" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A983" t="s">
         <v>2286</v>
       </c>
@@ -70919,7 +70954,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="984" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A984" t="s">
         <v>2290</v>
       </c>
@@ -70971,7 +71006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="985" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A985" t="s">
         <v>2294</v>
       </c>
@@ -71023,7 +71058,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="986" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A986" t="s">
         <v>2297</v>
       </c>
@@ -71078,7 +71113,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="987" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A987" t="s">
         <v>2354</v>
       </c>
@@ -71127,7 +71162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="988" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A988" t="s">
         <v>2300</v>
       </c>
@@ -71179,7 +71214,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="989" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A989" t="s">
         <v>2303</v>
       </c>
@@ -71231,7 +71266,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="990" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A990" t="s">
         <v>2307</v>
       </c>
@@ -71283,7 +71318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="991" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A991" t="s">
         <v>2309</v>
       </c>
@@ -71335,7 +71370,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="992" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A992" t="s">
         <v>2311</v>
       </c>
@@ -71387,7 +71422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="993" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A993" t="s">
         <v>2312</v>
       </c>
@@ -71439,7 +71474,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="994" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A994" t="s">
         <v>2315</v>
       </c>
@@ -71491,7 +71526,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="995" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A995" t="s">
         <v>2318</v>
       </c>
@@ -71534,7 +71569,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="996" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A996" t="s">
         <v>2322</v>
       </c>
@@ -71586,7 +71621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="997" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A997" t="s">
         <v>2325</v>
       </c>
@@ -71638,7 +71673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A998" t="s">
         <v>2328</v>
       </c>

--- a/data/hollywoodStories_consol.xlsx
+++ b/data/hollywoodStories_consol.xlsx
@@ -7561,10 +7561,10 @@
   <dimension ref="A1:U998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N876" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="U901" sqref="U901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37427,7 +37427,10 @@
         <v>201</v>
       </c>
       <c r="E452">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F452">
+        <v>87</v>
       </c>
       <c r="H452" t="s">
         <v>25</v>
@@ -37465,7 +37468,7 @@
       </c>
       <c r="U452">
         <f>Table1[[#This Row],[scoreAudience]]-Table1[[#This Row],[scoreRotten]]</f>
-        <v>-74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:21" x14ac:dyDescent="0.45">
@@ -61797,7 +61800,7 @@
         <v>92</v>
       </c>
       <c r="H822" t="s">
-        <v>883</v>
+        <v>94</v>
       </c>
       <c r="I822">
         <v>666</v>
@@ -63260,16 +63263,16 @@
         <v>1290</v>
       </c>
       <c r="E845">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F845">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G845" t="s">
         <v>131</v>
       </c>
       <c r="H845" t="s">
-        <v>94</v>
+        <v>375</v>
       </c>
       <c r="I845">
         <v>2874</v>
@@ -63310,7 +63313,7 @@
       </c>
       <c r="U845">
         <f>Table1[[#This Row],[scoreAudience]]-Table1[[#This Row],[scoreRotten]]</f>
-        <v>-41</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="846" spans="1:21" x14ac:dyDescent="0.45">
@@ -66659,7 +66662,7 @@
         <v>9729.5534591194973</v>
       </c>
       <c r="T904">
-        <v>5313987.22</v>
+        <v>287334279</v>
       </c>
       <c r="U904">
         <f>Table1[[#This Row],[scoreAudience]]-Table1[[#This Row],[scoreRotten]]</f>
